--- a/team_specific_matrix/Delaware St._B.xlsx
+++ b/team_specific_matrix/Delaware St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2191780821917808</v>
+        <v>0.2199312714776632</v>
       </c>
       <c r="C2">
-        <v>0.4840182648401826</v>
+        <v>0.4948453608247423</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0228310502283105</v>
+        <v>0.01718213058419244</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1643835616438356</v>
+        <v>0.1683848797250859</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1095890410958904</v>
+        <v>0.09965635738831616</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009433962264150943</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="C3">
-        <v>0.01886792452830189</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03773584905660377</v>
+        <v>0.02758620689655172</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7641509433962265</v>
+        <v>0.7655172413793103</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.169811320754717</v>
+        <v>0.1793103448275862</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09523809523809523</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7142857142857143</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1904761904761905</v>
+        <v>0.2413793103448276</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05113636363636364</v>
+        <v>0.07391304347826087</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01136363636363636</v>
+        <v>0.01304347826086956</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0625</v>
+        <v>0.05217391304347826</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2443181818181818</v>
+        <v>0.2434782608695652</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03409090909090909</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1420454545454546</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="R6">
-        <v>0.07954545454545454</v>
+        <v>0.08260869565217391</v>
       </c>
       <c r="S6">
-        <v>0.375</v>
+        <v>0.3782608695652174</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1162790697674419</v>
+        <v>0.1173708920187793</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005813953488372093</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04069767441860465</v>
+        <v>0.06103286384976526</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0872093023255814</v>
+        <v>0.07981220657276995</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03488372093023256</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.186046511627907</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="R7">
-        <v>0.0755813953488372</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="S7">
-        <v>0.4534883720930232</v>
+        <v>0.4553990610328639</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0821917808219178</v>
+        <v>0.08528784648187633</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.005479452054794521</v>
+        <v>0.004264392324093817</v>
       </c>
       <c r="E8">
-        <v>0.00273972602739726</v>
+        <v>0.002132196162046908</v>
       </c>
       <c r="F8">
-        <v>0.07671232876712329</v>
+        <v>0.06823027718550106</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09315068493150686</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01917808219178082</v>
+        <v>0.01918976545842218</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1506849315068493</v>
+        <v>0.1492537313432836</v>
       </c>
       <c r="R8">
-        <v>0.1068493150684932</v>
+        <v>0.09381663113006397</v>
       </c>
       <c r="S8">
-        <v>0.463013698630137</v>
+        <v>0.4733475479744136</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07692307692307693</v>
+        <v>0.06862745098039216</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07692307692307693</v>
+        <v>0.06862745098039216</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0641025641025641</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0641025641025641</v>
+        <v>0.04901960784313725</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1153846153846154</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="R9">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="S9">
-        <v>0.4487179487179487</v>
+        <v>0.4117647058823529</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1200951248513674</v>
+        <v>0.1152815013404826</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02140309155766944</v>
+        <v>0.02234137622877569</v>
       </c>
       <c r="E10">
-        <v>0.001189060642092747</v>
+        <v>0.0008936550491510277</v>
       </c>
       <c r="F10">
-        <v>0.06777645659928656</v>
+        <v>0.07059874888293119</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09988109393579073</v>
+        <v>0.1018766756032172</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01189060642092747</v>
+        <v>0.01072386058981233</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1914387633769322</v>
+        <v>0.194816800714924</v>
       </c>
       <c r="R10">
-        <v>0.09036860879904875</v>
+        <v>0.08936550491510277</v>
       </c>
       <c r="S10">
-        <v>0.3959571938168847</v>
+        <v>0.3941018766756032</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1877394636015326</v>
+        <v>0.1810089020771513</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.10727969348659</v>
+        <v>0.09792284866468842</v>
       </c>
       <c r="K11">
-        <v>0.2490421455938697</v>
+        <v>0.2522255192878338</v>
       </c>
       <c r="L11">
-        <v>0.4482758620689655</v>
+        <v>0.4540059347181009</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.007662835249042145</v>
+        <v>0.01483679525222552</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7983870967741935</v>
+        <v>0.78125</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1451612903225807</v>
+        <v>0.15</v>
       </c>
       <c r="K12">
-        <v>0.01612903225806452</v>
+        <v>0.01875</v>
       </c>
       <c r="L12">
-        <v>0.02419354838709677</v>
+        <v>0.025</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01612903225806452</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8157894736842105</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1578947368421053</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02631578947368421</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02717391304347826</v>
+        <v>0.02479338842975207</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2065217391304348</v>
+        <v>0.2024793388429752</v>
       </c>
       <c r="I15">
-        <v>0.03804347826086957</v>
+        <v>0.04132231404958678</v>
       </c>
       <c r="J15">
-        <v>0.358695652173913</v>
+        <v>0.371900826446281</v>
       </c>
       <c r="K15">
-        <v>0.09239130434782608</v>
+        <v>0.1074380165289256</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0108695652173913</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="N15">
-        <v>0.005434782608695652</v>
+        <v>0.004132231404958678</v>
       </c>
       <c r="O15">
-        <v>0.08152173913043478</v>
+        <v>0.08677685950413223</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1793478260869565</v>
+        <v>0.1528925619834711</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03125</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.234375</v>
+        <v>0.2183908045977012</v>
       </c>
       <c r="I16">
-        <v>0.0078125</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="J16">
-        <v>0.40625</v>
+        <v>0.4252873563218391</v>
       </c>
       <c r="K16">
-        <v>0.140625</v>
+        <v>0.1264367816091954</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.015625</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.015625</v>
+        <v>0.02873563218390805</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1484375</v>
+        <v>0.1551724137931035</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03546099290780142</v>
+        <v>0.03532608695652174</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1524822695035461</v>
+        <v>0.1467391304347826</v>
       </c>
       <c r="I17">
-        <v>0.06028368794326241</v>
+        <v>0.05978260869565218</v>
       </c>
       <c r="J17">
-        <v>0.4078014184397163</v>
+        <v>0.3967391304347826</v>
       </c>
       <c r="K17">
-        <v>0.1028368794326241</v>
+        <v>0.1005434782608696</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0425531914893617</v>
+        <v>0.03804347826086957</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.08156028368794327</v>
+        <v>0.08967391304347826</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1170212765957447</v>
+        <v>0.1331521739130435</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03246753246753246</v>
+        <v>0.03015075376884422</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2012987012987013</v>
+        <v>0.1959798994974874</v>
       </c>
       <c r="I18">
-        <v>0.07142857142857142</v>
+        <v>0.07035175879396985</v>
       </c>
       <c r="J18">
-        <v>0.3701298701298701</v>
+        <v>0.3819095477386935</v>
       </c>
       <c r="K18">
-        <v>0.09740259740259741</v>
+        <v>0.09045226130653267</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01298701298701299</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1233766233766234</v>
+        <v>0.1155778894472362</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09090909090909091</v>
+        <v>0.1055276381909548</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02959830866807611</v>
+        <v>0.0290088638195004</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2346723044397463</v>
+        <v>0.2344883158742949</v>
       </c>
       <c r="I19">
-        <v>0.04651162790697674</v>
+        <v>0.04593070104754231</v>
       </c>
       <c r="J19">
-        <v>0.3372093023255814</v>
+        <v>0.346494762288477</v>
       </c>
       <c r="K19">
-        <v>0.1173361522198731</v>
+        <v>0.1144238517324738</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02219873150105708</v>
+        <v>0.0185334407735697</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07399577167019028</v>
+        <v>0.0781627719580983</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.138477801268499</v>
+        <v>0.1329572925060435</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Delaware St._B.xlsx
+++ b/team_specific_matrix/Delaware St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2199312714776632</v>
+        <v>0.2208588957055215</v>
       </c>
       <c r="C2">
-        <v>0.4948453608247423</v>
+        <v>0.4938650306748466</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01718213058419244</v>
+        <v>0.01533742331288344</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1683848797250859</v>
+        <v>0.1717791411042945</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09965635738831616</v>
+        <v>0.09815950920245399</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01379310344827586</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="C3">
-        <v>0.01379310344827586</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02758620689655172</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7655172413793103</v>
+        <v>0.7716049382716049</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1793103448275862</v>
+        <v>0.1604938271604938</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06896551724137931</v>
+        <v>0.0625</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6896551724137931</v>
+        <v>0.71875</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2413793103448276</v>
+        <v>0.21875</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07391304347826087</v>
+        <v>0.07003891050583658</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01304347826086956</v>
+        <v>0.01167315175097276</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05217391304347826</v>
+        <v>0.05058365758754864</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2434782608695652</v>
+        <v>0.2256809338521401</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03478260869565217</v>
+        <v>0.03501945525291829</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1217391304347826</v>
+        <v>0.132295719844358</v>
       </c>
       <c r="R6">
-        <v>0.08260869565217391</v>
+        <v>0.08949416342412451</v>
       </c>
       <c r="S6">
-        <v>0.3782608695652174</v>
+        <v>0.3852140077821012</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1173708920187793</v>
+        <v>0.1313559322033898</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.004694835680751174</v>
+        <v>0.00423728813559322</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06103286384976526</v>
+        <v>0.05932203389830509</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07981220657276995</v>
+        <v>0.08050847457627118</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02816901408450704</v>
+        <v>0.02542372881355932</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1690140845070423</v>
+        <v>0.1567796610169492</v>
       </c>
       <c r="R7">
-        <v>0.08450704225352113</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="S7">
-        <v>0.4553990610328639</v>
+        <v>0.4576271186440678</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08528784648187633</v>
+        <v>0.08914728682170543</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.004264392324093817</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="E8">
-        <v>0.002132196162046908</v>
+        <v>0.001937984496124031</v>
       </c>
       <c r="F8">
-        <v>0.06823027718550106</v>
+        <v>0.06395348837209303</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1044776119402985</v>
+        <v>0.1124031007751938</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01918976545842218</v>
+        <v>0.01937984496124031</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1492537313432836</v>
+        <v>0.1511627906976744</v>
       </c>
       <c r="R8">
-        <v>0.09381663113006397</v>
+        <v>0.09108527131782945</v>
       </c>
       <c r="S8">
-        <v>0.4733475479744136</v>
+        <v>0.4651162790697674</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06862745098039216</v>
+        <v>0.0546875</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06862745098039216</v>
+        <v>0.0703125</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08823529411764706</v>
+        <v>0.109375</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04901960784313725</v>
+        <v>0.0390625</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1470588235294118</v>
+        <v>0.1640625</v>
       </c>
       <c r="R9">
-        <v>0.1666666666666667</v>
+        <v>0.15625</v>
       </c>
       <c r="S9">
-        <v>0.4117647058823529</v>
+        <v>0.40625</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1152815013404826</v>
+        <v>0.1121718377088305</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02234137622877569</v>
+        <v>0.02147971360381861</v>
       </c>
       <c r="E10">
-        <v>0.0008936550491510277</v>
+        <v>0.0007955449482895784</v>
       </c>
       <c r="F10">
-        <v>0.07059874888293119</v>
+        <v>0.07478122513922036</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1018766756032172</v>
+        <v>0.1042163882259348</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01072386058981233</v>
+        <v>0.01511535401750199</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.194816800714924</v>
+        <v>0.192521877486078</v>
       </c>
       <c r="R10">
-        <v>0.08936550491510277</v>
+        <v>0.09148766905330151</v>
       </c>
       <c r="S10">
-        <v>0.3941018766756032</v>
+        <v>0.3874303898170247</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1810089020771513</v>
+        <v>0.1752021563342318</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09792284866468842</v>
+        <v>0.1024258760107817</v>
       </c>
       <c r="K11">
-        <v>0.2522255192878338</v>
+        <v>0.2506738544474393</v>
       </c>
       <c r="L11">
-        <v>0.4540059347181009</v>
+        <v>0.4582210242587601</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01483679525222552</v>
+        <v>0.01347708894878706</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.78125</v>
+        <v>0.7921348314606742</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.15</v>
+        <v>0.1460674157303371</v>
       </c>
       <c r="K12">
-        <v>0.01875</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="L12">
-        <v>0.025</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.025</v>
+        <v>0.02247191011235955</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8333333333333334</v>
+        <v>0.8444444444444444</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1428571428571428</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02380952380952381</v>
+        <v>0.02222222222222222</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02479338842975207</v>
+        <v>0.02909090909090909</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2024793388429752</v>
+        <v>0.2</v>
       </c>
       <c r="I15">
-        <v>0.04132231404958678</v>
+        <v>0.05090909090909091</v>
       </c>
       <c r="J15">
-        <v>0.371900826446281</v>
+        <v>0.3781818181818182</v>
       </c>
       <c r="K15">
-        <v>0.1074380165289256</v>
+        <v>0.09818181818181818</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.008264462809917356</v>
+        <v>0.007272727272727273</v>
       </c>
       <c r="N15">
-        <v>0.004132231404958678</v>
+        <v>0.003636363636363636</v>
       </c>
       <c r="O15">
-        <v>0.08677685950413223</v>
+        <v>0.08363636363636363</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1528925619834711</v>
+        <v>0.1490909090909091</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02298850574712644</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2183908045977012</v>
+        <v>0.2284263959390863</v>
       </c>
       <c r="I16">
-        <v>0.01149425287356322</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="J16">
-        <v>0.4252873563218391</v>
+        <v>0.4060913705583756</v>
       </c>
       <c r="K16">
-        <v>0.1264367816091954</v>
+        <v>0.1218274111675127</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01149425287356322</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02873563218390805</v>
+        <v>0.03045685279187817</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1551724137931035</v>
+        <v>0.1522842639593909</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03532608695652174</v>
+        <v>0.03163017031630171</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1467391304347826</v>
+        <v>0.1557177615571776</v>
       </c>
       <c r="I17">
-        <v>0.05978260869565218</v>
+        <v>0.06082725060827251</v>
       </c>
       <c r="J17">
-        <v>0.3967391304347826</v>
+        <v>0.3965936739659368</v>
       </c>
       <c r="K17">
-        <v>0.1005434782608696</v>
+        <v>0.09975669099756691</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.03804347826086957</v>
+        <v>0.0340632603406326</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.08967391304347826</v>
+        <v>0.09002433090024331</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1331521739130435</v>
+        <v>0.1313868613138686</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03015075376884422</v>
+        <v>0.03097345132743363</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1959798994974874</v>
+        <v>0.1902654867256637</v>
       </c>
       <c r="I18">
-        <v>0.07035175879396985</v>
+        <v>0.07964601769911504</v>
       </c>
       <c r="J18">
-        <v>0.3819095477386935</v>
+        <v>0.3805309734513274</v>
       </c>
       <c r="K18">
-        <v>0.09045226130653267</v>
+        <v>0.1017699115044248</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01005025125628141</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1155778894472362</v>
+        <v>0.1061946902654867</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1055276381909548</v>
+        <v>0.1017699115044248</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0290088638195004</v>
+        <v>0.02635431918008785</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2344883158742949</v>
+        <v>0.2291361639824304</v>
       </c>
       <c r="I19">
-        <v>0.04593070104754231</v>
+        <v>0.05051244509516838</v>
       </c>
       <c r="J19">
-        <v>0.346494762288477</v>
+        <v>0.3506588579795022</v>
       </c>
       <c r="K19">
-        <v>0.1144238517324738</v>
+        <v>0.1134699853587116</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0185334407735697</v>
+        <v>0.01903367496339678</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.0781627719580983</v>
+        <v>0.08125915080527087</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1329572925060435</v>
+        <v>0.1295754026354319</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Delaware St._B.xlsx
+++ b/team_specific_matrix/Delaware St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2208588957055215</v>
+        <v>0.2161383285302594</v>
       </c>
       <c r="C2">
-        <v>0.4938650306748466</v>
+        <v>0.5014409221902018</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01533742331288344</v>
+        <v>0.01729106628242075</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1717791411042945</v>
+        <v>0.1671469740634006</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09815950920245399</v>
+        <v>0.09798270893371758</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01234567901234568</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="C3">
-        <v>0.01851851851851852</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03703703703703703</v>
+        <v>0.03409090909090909</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7716049382716049</v>
+        <v>0.7784090909090909</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1604938271604938</v>
+        <v>0.1534090909090909</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0625</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.71875</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.21875</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07003891050583658</v>
+        <v>0.06617647058823529</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01167315175097276</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05058365758754864</v>
+        <v>0.04779411764705882</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2256809338521401</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03501945525291829</v>
+        <v>0.03308823529411765</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.132295719844358</v>
+        <v>0.1323529411764706</v>
       </c>
       <c r="R6">
-        <v>0.08949416342412451</v>
+        <v>0.08455882352941177</v>
       </c>
       <c r="S6">
-        <v>0.3852140077821012</v>
+        <v>0.3860294117647059</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1313559322033898</v>
+        <v>0.1264822134387352</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00423728813559322</v>
+        <v>0.003952569169960474</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05932203389830509</v>
+        <v>0.05928853754940711</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08050847457627118</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02542372881355932</v>
+        <v>0.02766798418972332</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1567796610169492</v>
+        <v>0.1541501976284585</v>
       </c>
       <c r="R7">
-        <v>0.0847457627118644</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="S7">
-        <v>0.4576271186440678</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08914728682170543</v>
+        <v>0.08839779005524862</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.005813953488372093</v>
+        <v>0.009208103130755065</v>
       </c>
       <c r="E8">
-        <v>0.001937984496124031</v>
+        <v>0.001841620626151013</v>
       </c>
       <c r="F8">
-        <v>0.06395348837209303</v>
+        <v>0.06261510128913444</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1124031007751938</v>
+        <v>0.1160220994475138</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01937984496124031</v>
+        <v>0.01841620626151013</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1511627906976744</v>
+        <v>0.1546961325966851</v>
       </c>
       <c r="R8">
-        <v>0.09108527131782945</v>
+        <v>0.08839779005524862</v>
       </c>
       <c r="S8">
-        <v>0.4651162790697674</v>
+        <v>0.4604051565377532</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0546875</v>
+        <v>0.05109489051094891</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0703125</v>
+        <v>0.06569343065693431</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.109375</v>
+        <v>0.1094890510948905</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0390625</v>
+        <v>0.0364963503649635</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1640625</v>
+        <v>0.1678832116788321</v>
       </c>
       <c r="R9">
-        <v>0.15625</v>
+        <v>0.1532846715328467</v>
       </c>
       <c r="S9">
-        <v>0.40625</v>
+        <v>0.4160583941605839</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1121718377088305</v>
+        <v>0.1140544518027962</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02147971360381861</v>
+        <v>0.02060338484179544</v>
       </c>
       <c r="E10">
-        <v>0.0007955449482895784</v>
+        <v>0.0007358351729212656</v>
       </c>
       <c r="F10">
-        <v>0.07478122513922036</v>
+        <v>0.07579102281089035</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1042163882259348</v>
+        <v>0.105224429727741</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01511535401750199</v>
+        <v>0.01398086828550405</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.192521877486078</v>
+        <v>0.1979396615158205</v>
       </c>
       <c r="R10">
-        <v>0.09148766905330151</v>
+        <v>0.09050772626931568</v>
       </c>
       <c r="S10">
-        <v>0.3874303898170247</v>
+        <v>0.3811626195732156</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1752021563342318</v>
+        <v>0.1691542288557214</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1024258760107817</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="K11">
-        <v>0.2506738544474393</v>
+        <v>0.2412935323383085</v>
       </c>
       <c r="L11">
-        <v>0.4582210242587601</v>
+        <v>0.472636815920398</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01347708894878706</v>
+        <v>0.01243781094527363</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7921348314606742</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1460674157303371</v>
+        <v>0.1616161616161616</v>
       </c>
       <c r="K12">
-        <v>0.01685393258426966</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="L12">
-        <v>0.02247191011235955</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02247191011235955</v>
+        <v>0.0202020202020202</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8444444444444444</v>
+        <v>0.8125</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1333333333333333</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02222222222222222</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02909090909090909</v>
+        <v>0.02787456445993031</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="I15">
-        <v>0.05090909090909091</v>
+        <v>0.05226480836236934</v>
       </c>
       <c r="J15">
-        <v>0.3781818181818182</v>
+        <v>0.3763066202090593</v>
       </c>
       <c r="K15">
-        <v>0.09818181818181818</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.007272727272727273</v>
+        <v>0.006968641114982578</v>
       </c>
       <c r="N15">
-        <v>0.003636363636363636</v>
+        <v>0.003484320557491289</v>
       </c>
       <c r="O15">
-        <v>0.08363636363636363</v>
+        <v>0.08362369337979095</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1490909090909091</v>
+        <v>0.156794425087108</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02538071065989848</v>
+        <v>0.02830188679245283</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2284263959390863</v>
+        <v>0.2358490566037736</v>
       </c>
       <c r="I16">
-        <v>0.02030456852791878</v>
+        <v>0.02358490566037736</v>
       </c>
       <c r="J16">
-        <v>0.4060913705583756</v>
+        <v>0.3867924528301887</v>
       </c>
       <c r="K16">
-        <v>0.1218274111675127</v>
+        <v>0.1179245283018868</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01522842639593909</v>
+        <v>0.01415094339622642</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03045685279187817</v>
+        <v>0.0330188679245283</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1522842639593909</v>
+        <v>0.160377358490566</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03163017031630171</v>
+        <v>0.02901785714285714</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1557177615571776</v>
+        <v>0.1495535714285714</v>
       </c>
       <c r="I17">
-        <v>0.06082725060827251</v>
+        <v>0.05803571428571429</v>
       </c>
       <c r="J17">
-        <v>0.3965936739659368</v>
+        <v>0.4017857142857143</v>
       </c>
       <c r="K17">
-        <v>0.09975669099756691</v>
+        <v>0.1026785714285714</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0340632603406326</v>
+        <v>0.03125</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.09002433090024331</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1313868613138686</v>
+        <v>0.1383928571428572</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03097345132743363</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1902654867256637</v>
+        <v>0.1848739495798319</v>
       </c>
       <c r="I18">
-        <v>0.07964601769911504</v>
+        <v>0.07983193277310924</v>
       </c>
       <c r="J18">
-        <v>0.3805309734513274</v>
+        <v>0.3781512605042017</v>
       </c>
       <c r="K18">
-        <v>0.1017699115044248</v>
+        <v>0.1008403361344538</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.008849557522123894</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1061946902654867</v>
+        <v>0.1050420168067227</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1017699115044248</v>
+        <v>0.1134453781512605</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02635431918008785</v>
+        <v>0.02606310013717421</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2291361639824304</v>
+        <v>0.2263374485596708</v>
       </c>
       <c r="I19">
-        <v>0.05051244509516838</v>
+        <v>0.05075445816186557</v>
       </c>
       <c r="J19">
-        <v>0.3506588579795022</v>
+        <v>0.3539094650205761</v>
       </c>
       <c r="K19">
-        <v>0.1134699853587116</v>
+        <v>0.1186556927297668</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01903367496339678</v>
+        <v>0.01989026063100137</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.08125915080527087</v>
+        <v>0.07818930041152264</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1295754026354319</v>
+        <v>0.1262002743484225</v>
       </c>
     </row>
   </sheetData>
